--- a/Code/Results/Cases/Case_3_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.0434816504079</v>
+        <v>7.080674074869712</v>
       </c>
       <c r="C2">
-        <v>6.329917688421957</v>
+        <v>5.959411182113225</v>
       </c>
       <c r="D2">
-        <v>5.111127903486817</v>
+        <v>4.475885659471258</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.32907306300182</v>
+        <v>20.88860462921281</v>
       </c>
       <c r="G2">
-        <v>17.85598619292121</v>
+        <v>22.86737660241402</v>
       </c>
       <c r="H2">
-        <v>7.809246361180611</v>
+        <v>12.87363916951639</v>
       </c>
       <c r="I2">
-        <v>11.74683282680098</v>
+        <v>18.61580411706663</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.22670505833357</v>
+        <v>8.507698967479488</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.82453469489555</v>
+        <v>19.97178962817854</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.21371794663905</v>
+        <v>18.7963951308049</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.48469396116391</v>
+        <v>6.773247530042668</v>
       </c>
       <c r="C3">
-        <v>6.191849775454505</v>
+        <v>5.900774916668055</v>
       </c>
       <c r="D3">
-        <v>4.890110417285501</v>
+        <v>4.383079139917542</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.09322262443425</v>
+        <v>20.92101288002941</v>
       </c>
       <c r="G3">
-        <v>17.61473717481336</v>
+        <v>22.9214265074973</v>
       </c>
       <c r="H3">
-        <v>7.884654973993485</v>
+        <v>12.9164050755911</v>
       </c>
       <c r="I3">
-        <v>11.92522119836264</v>
+        <v>18.70068106776516</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.846803611968006</v>
+        <v>8.337542724873428</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.54432227186475</v>
+        <v>19.37294908440589</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.26427988702335</v>
+        <v>18.8645578292609</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.12379585323217</v>
+        <v>6.575730274252771</v>
       </c>
       <c r="C4">
-        <v>6.104583542130317</v>
+        <v>5.864240989951846</v>
       </c>
       <c r="D4">
-        <v>4.748180522420038</v>
+        <v>4.324302717674746</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.96205943567062</v>
+        <v>20.94655389911819</v>
       </c>
       <c r="G4">
-        <v>17.49001197950029</v>
+        <v>22.96254880407701</v>
       </c>
       <c r="H4">
-        <v>7.935412554068876</v>
+        <v>12.94456742240272</v>
       </c>
       <c r="I4">
-        <v>12.04363493305866</v>
+        <v>18.75634332163039</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.603851746607454</v>
+        <v>8.230133486267093</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.09311134574846</v>
+        <v>19.00383256119324</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.30634691126542</v>
+        <v>18.9103414451429</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.972357438985494</v>
+        <v>6.493107276536944</v>
       </c>
       <c r="C5">
-        <v>6.068453892033058</v>
+        <v>5.849229178715561</v>
       </c>
       <c r="D5">
-        <v>4.688827313685677</v>
+        <v>4.299917826627598</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.91199448368482</v>
+        <v>20.95837755525098</v>
       </c>
       <c r="G5">
-        <v>17.44487934658328</v>
+        <v>22.98129178862157</v>
       </c>
       <c r="H5">
-        <v>7.957182735295356</v>
+        <v>12.95652271272813</v>
       </c>
       <c r="I5">
-        <v>12.09403044912467</v>
+        <v>18.77991769310925</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.50252379156486</v>
+        <v>8.185662238633251</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.48808323944774</v>
+        <v>18.85330933974886</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.32613458505777</v>
+        <v>18.92998527395614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.946950736488921</v>
+        <v>6.479261172016495</v>
       </c>
       <c r="C6">
-        <v>6.062421993196314</v>
+        <v>5.846729275642286</v>
       </c>
       <c r="D6">
-        <v>4.678881789688245</v>
+        <v>4.29584312076673</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.90388412109723</v>
+        <v>20.96042624811966</v>
       </c>
       <c r="G6">
-        <v>17.43772309360241</v>
+        <v>22.9845236413524</v>
       </c>
       <c r="H6">
-        <v>7.960862280567691</v>
+        <v>12.95853680889584</v>
       </c>
       <c r="I6">
-        <v>12.10252534467497</v>
+        <v>18.78388603347411</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.485561559786767</v>
+        <v>8.178236574564488</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.38677335986689</v>
+        <v>18.82831635868496</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.32957644579008</v>
+        <v>18.9333066490824</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.12177104113898</v>
+        <v>6.574624530045843</v>
       </c>
       <c r="C7">
-        <v>6.104098507562816</v>
+        <v>5.864039024529412</v>
       </c>
       <c r="D7">
-        <v>4.747386131005208</v>
+        <v>4.323975583549162</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.96137060536462</v>
+        <v>20.94670763068105</v>
       </c>
       <c r="G7">
-        <v>17.48938051524292</v>
+        <v>22.96279355418683</v>
       </c>
       <c r="H7">
-        <v>7.935701801115052</v>
+        <v>12.94472671637478</v>
       </c>
       <c r="I7">
-        <v>12.04430603226074</v>
+        <v>18.75665764465933</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.602494451486761</v>
+        <v>8.229536520929759</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.0850079524891</v>
+        <v>19.00180263486438</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.30660322930583</v>
+        <v>18.91060237650422</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.85456524998542</v>
+        <v>6.976528755862731</v>
       </c>
       <c r="C8">
-        <v>6.282864593135883</v>
+        <v>5.939309325908227</v>
       </c>
       <c r="D8">
-        <v>5.036240785283158</v>
+        <v>4.444268437423157</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15.24489304891553</v>
+        <v>20.89860613991641</v>
       </c>
       <c r="G8">
-        <v>17.76783660591336</v>
+        <v>22.88436020588176</v>
       </c>
       <c r="H8">
-        <v>7.834300929884447</v>
+        <v>12.88798978964136</v>
       </c>
       <c r="I8">
-        <v>11.80643917433084</v>
+        <v>18.64433311580847</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.09779195999103</v>
+        <v>8.449658958193524</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.04842797775802</v>
+        <v>19.76575339036394</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.22878676378758</v>
+        <v>18.81908049082625</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.14634311135234</v>
+        <v>7.692670111394695</v>
       </c>
       <c r="C9">
-        <v>6.610974047626756</v>
+        <v>6.082287170524127</v>
       </c>
       <c r="D9">
-        <v>5.551397454440898</v>
+        <v>4.665208461883656</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.91092993474157</v>
+        <v>20.8491705600742</v>
       </c>
       <c r="G9">
-        <v>18.5073198431126</v>
+        <v>22.79392587563496</v>
       </c>
       <c r="H9">
-        <v>7.672465794163712</v>
+        <v>12.79182856930273</v>
       </c>
       <c r="I9">
-        <v>11.41509081129338</v>
+        <v>18.452234559021</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.98754906662963</v>
+        <v>8.856553177258377</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.49578625761414</v>
+        <v>21.24210947166765</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.16952039198627</v>
+        <v>18.67088704984858</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.00213408860716</v>
+        <v>8.172172525470796</v>
       </c>
       <c r="C10">
-        <v>6.834453192333395</v>
+        <v>6.183970807470414</v>
       </c>
       <c r="D10">
-        <v>5.896349008340234</v>
+        <v>4.817517193080981</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.46950776600195</v>
+        <v>20.840348124885</v>
       </c>
       <c r="G10">
-        <v>19.17840065635834</v>
+        <v>22.76661142411309</v>
       </c>
       <c r="H10">
-        <v>7.578555870480187</v>
+        <v>12.73037444557566</v>
       </c>
       <c r="I10">
-        <v>11.18053220906213</v>
+        <v>18.32830313571448</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.58562230890108</v>
+        <v>9.138539953283757</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.34838698652241</v>
+        <v>22.30066478997146</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.19128128907798</v>
+        <v>18.58119539584544</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.37026265256852</v>
+        <v>8.379746930181881</v>
       </c>
       <c r="C11">
-        <v>6.931327909903466</v>
+        <v>6.22938810410416</v>
       </c>
       <c r="D11">
-        <v>6.045558179706473</v>
+        <v>4.884462273713459</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.73913950381216</v>
+        <v>20.84231988340677</v>
       </c>
       <c r="G11">
-        <v>19.51351480982409</v>
+        <v>22.7627643980051</v>
       </c>
       <c r="H11">
-        <v>7.541828802427347</v>
+        <v>12.70441222805347</v>
       </c>
       <c r="I11">
-        <v>11.08714931336538</v>
+        <v>18.27566652018586</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.84435392896388</v>
+        <v>9.262787417850836</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.09028466690815</v>
+        <v>22.77417491513586</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.21728490310916</v>
+        <v>18.54458268792298</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.50653411971613</v>
+        <v>8.456803925781131</v>
       </c>
       <c r="C12">
-        <v>6.967225463213365</v>
+        <v>6.246456724751369</v>
       </c>
       <c r="D12">
-        <v>6.100913946885301</v>
+        <v>4.909463206474897</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.84352645349055</v>
+        <v>20.84392716196909</v>
       </c>
       <c r="G12">
-        <v>19.64489222695302</v>
+        <v>22.76254608310376</v>
       </c>
       <c r="H12">
-        <v>7.52883266334659</v>
+        <v>12.69486759822501</v>
       </c>
       <c r="I12">
-        <v>11.05387549658267</v>
+        <v>18.25627307347782</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.9402956166066</v>
+        <v>9.309230363462721</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.75080537385077</v>
+        <v>22.9521510742647</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.22961613373079</v>
+        <v>18.531322671005</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.47732636345332</v>
+        <v>8.44027753587164</v>
       </c>
       <c r="C13">
-        <v>6.959531057297161</v>
+        <v>6.242786615038659</v>
       </c>
       <c r="D13">
-        <v>6.089043716533333</v>
+        <v>4.904094559682037</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.82094231555859</v>
+        <v>20.84354273792601</v>
       </c>
       <c r="G13">
-        <v>19.61639530786507</v>
+        <v>22.76253795501097</v>
       </c>
       <c r="H13">
-        <v>7.531590263524977</v>
+        <v>12.69691045354764</v>
       </c>
       <c r="I13">
-        <v>11.0609457841981</v>
+        <v>18.26042581469644</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.91972536793717</v>
+        <v>9.299255449884425</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.60846393419637</v>
+        <v>22.91388258965912</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.22684710829665</v>
+        <v>18.53415153785349</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.38153706877746</v>
+        <v>8.386117608115383</v>
       </c>
       <c r="C14">
-        <v>6.934297625725429</v>
+        <v>6.230795005812021</v>
       </c>
       <c r="D14">
-        <v>6.050135536190564</v>
+        <v>4.886526195720401</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.74768137087348</v>
+        <v>20.84243486994005</v>
       </c>
       <c r="G14">
-        <v>19.52423239958839</v>
+        <v>22.76272159267023</v>
       </c>
       <c r="H14">
-        <v>7.540741042199077</v>
+        <v>12.70362123957651</v>
       </c>
       <c r="I14">
-        <v>11.08436894925996</v>
+        <v>18.27406020328356</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.85228860582225</v>
+        <v>9.266620619374088</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.14459158454919</v>
+        <v>22.78884476430413</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.21824861365878</v>
+        <v>18.54347965288139</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.32245288892988</v>
+        <v>8.352740850360508</v>
       </c>
       <c r="C15">
-        <v>6.918735704954591</v>
+        <v>6.223432608439123</v>
       </c>
       <c r="D15">
-        <v>6.0261526760701</v>
+        <v>4.875719150896733</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.70310605682943</v>
+        <v>20.84186833298802</v>
       </c>
       <c r="G15">
-        <v>19.46836906586828</v>
+        <v>22.76299548566818</v>
       </c>
       <c r="H15">
-        <v>7.546466378426548</v>
+        <v>12.70776912727933</v>
       </c>
       <c r="I15">
-        <v>11.09899370952848</v>
+        <v>18.2824818716844</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.81071298106776</v>
+        <v>9.246551031762518</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.86065786776668</v>
+        <v>22.71207708803969</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.21331047092519</v>
+        <v>18.54927216824924</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.97764281883823</v>
+        <v>8.158392057510127</v>
       </c>
       <c r="C16">
-        <v>6.828017875020159</v>
+        <v>6.180984997948602</v>
       </c>
       <c r="D16">
-        <v>5.886439508818296</v>
+        <v>4.81309392654622</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.4522031192657</v>
+        <v>20.84033971518216</v>
       </c>
       <c r="G16">
-        <v>19.15711582798393</v>
+        <v>22.76703590374281</v>
       </c>
       <c r="H16">
-        <v>7.581080889465729</v>
+        <v>12.73211125528672</v>
       </c>
       <c r="I16">
-        <v>11.18691739606595</v>
+        <v>18.33181841599579</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.56843558918013</v>
+        <v>9.130336612227437</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.23452852110779</v>
+        <v>22.26954264874432</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.18992013955242</v>
+        <v>18.58367258793108</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.76063144452417</v>
+        <v>8.036439777745992</v>
       </c>
       <c r="C17">
-        <v>6.771074794557788</v>
+        <v>6.154723180545786</v>
       </c>
       <c r="D17">
-        <v>5.798728909556366</v>
+        <v>4.774066170699594</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.3022909153053</v>
+        <v>20.84093509469508</v>
       </c>
       <c r="G17">
-        <v>18.97393811628312</v>
+        <v>22.77171559382975</v>
       </c>
       <c r="H17">
-        <v>7.603885662206548</v>
+        <v>12.74755497931637</v>
       </c>
       <c r="I17">
-        <v>11.24438456318272</v>
+        <v>18.3630435153119</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.41631185540577</v>
+        <v>9.057990579757636</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.23575310647495</v>
+        <v>21.99587353234669</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.17981264254337</v>
+        <v>18.60585042712403</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.6338246316176</v>
+        <v>7.965304086186872</v>
       </c>
       <c r="C18">
-        <v>6.737878804565403</v>
+        <v>6.139539636321573</v>
       </c>
       <c r="D18">
-        <v>5.747556599554859</v>
+        <v>4.751398815761173</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.21752364227253</v>
+        <v>20.84184093785725</v>
       </c>
       <c r="G18">
-        <v>18.87137522132959</v>
+        <v>22.7752144570491</v>
       </c>
       <c r="H18">
-        <v>7.617563352711934</v>
+        <v>12.75662544333398</v>
       </c>
       <c r="I18">
-        <v>11.2786804046973</v>
+        <v>18.38135536726901</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.32756670011402</v>
+        <v>9.016001266447262</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.66010160806206</v>
+        <v>21.83771973996538</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.17550434057288</v>
+        <v>18.61900064906805</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.59055110853884</v>
+        <v>7.941049371969293</v>
       </c>
       <c r="C19">
-        <v>6.726565695890896</v>
+        <v>6.134385563070839</v>
       </c>
       <c r="D19">
-        <v>5.730107385051531</v>
+        <v>4.743686734324451</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.18907209845665</v>
+        <v>20.84224439396082</v>
       </c>
       <c r="G19">
-        <v>18.837124176924</v>
+        <v>22.77653758485499</v>
       </c>
       <c r="H19">
-        <v>7.622289242216763</v>
+        <v>12.75972877369801</v>
       </c>
       <c r="I19">
-        <v>11.29050076198478</v>
+        <v>18.38761587146249</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.29730818095994</v>
+        <v>9.001720388869728</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.46492895822229</v>
+        <v>21.78404903687333</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.17429917080571</v>
+        <v>18.62352071237698</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.78393897467732</v>
+        <v>8.049524699673142</v>
       </c>
       <c r="C20">
-        <v>6.77718307288898</v>
+        <v>6.157526982130626</v>
       </c>
       <c r="D20">
-        <v>5.808140996194028</v>
+        <v>4.778243570069731</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.31809809315538</v>
+        <v>20.84081340411234</v>
       </c>
       <c r="G20">
-        <v>18.99314705407342</v>
+        <v>22.77113384827581</v>
       </c>
       <c r="H20">
-        <v>7.601399639042544</v>
+        <v>12.74589154809827</v>
       </c>
       <c r="I20">
-        <v>11.23813732085784</v>
+        <v>18.35968311214193</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.43263561053309</v>
+        <v>9.0657312430281</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.34218125558435</v>
+        <v>22.02508467908009</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.18073162356121</v>
+        <v>18.60344875329896</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.40975841964628</v>
+        <v>8.402067883267629</v>
       </c>
       <c r="C21">
-        <v>6.941731531921722</v>
+        <v>6.234320830764577</v>
       </c>
       <c r="D21">
-        <v>6.061595242935428</v>
+        <v>4.891696040586449</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.76913743177747</v>
+        <v>20.84273692462968</v>
       </c>
       <c r="G21">
-        <v>19.55117972808685</v>
+        <v>22.76263400921345</v>
       </c>
       <c r="H21">
-        <v>7.538028092318866</v>
+        <v>12.7016423378908</v>
       </c>
       <c r="I21">
-        <v>11.07743085459905</v>
+        <v>18.27004081888782</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.87215263820775</v>
+        <v>9.276222938921093</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.28079477468334</v>
+        <v>22.82560887383694</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.22070538787018</v>
+        <v>18.54072333890507</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.80046840706677</v>
+        <v>8.623448422486964</v>
       </c>
       <c r="C22">
-        <v>7.04462566339427</v>
+        <v>6.283748641798896</v>
       </c>
       <c r="D22">
-        <v>6.220539192882745</v>
+        <v>4.963800011510452</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.07726468976809</v>
+        <v>20.8490098569257</v>
       </c>
       <c r="G22">
-        <v>19.94209622939216</v>
+        <v>22.7642990161183</v>
       </c>
       <c r="H22">
-        <v>7.501948476133887</v>
+        <v>12.6743940365778</v>
       </c>
       <c r="I22">
-        <v>10.9846653452185</v>
+        <v>18.21459601506526</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.14747697480237</v>
+        <v>9.410242810935637</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.20829632668151</v>
+        <v>23.34096481118232</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.26139631380344</v>
+        <v>18.50325262977454</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.59364544053832</v>
+        <v>8.506127814706332</v>
       </c>
       <c r="C23">
-        <v>6.9901725210347</v>
+        <v>6.257440750767184</v>
       </c>
       <c r="D23">
-        <v>6.136334537948376</v>
+        <v>4.925507835303685</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>16.91156840130598</v>
+        <v>20.84520312871654</v>
       </c>
       <c r="G23">
-        <v>19.73098726375813</v>
+        <v>22.76274843051787</v>
       </c>
       <c r="H23">
-        <v>7.52069972970786</v>
+        <v>12.68878405016636</v>
       </c>
       <c r="I23">
-        <v>11.03299181916892</v>
+        <v>18.2439001394264</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.00166557421787</v>
+        <v>9.339047116765121</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.17791528071678</v>
+        <v>23.06668031722634</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.23828768209467</v>
+        <v>18.52292832061507</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.7734080008627</v>
+        <v>8.043612192793345</v>
       </c>
       <c r="C24">
-        <v>6.774422941711148</v>
+        <v>6.156259648343391</v>
       </c>
       <c r="D24">
-        <v>5.803888113645285</v>
+        <v>4.776355682517941</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.31094725087085</v>
+        <v>20.84086666509357</v>
       </c>
       <c r="G24">
-        <v>18.98445414617594</v>
+        <v>22.77139433769544</v>
       </c>
       <c r="H24">
-        <v>7.602521808038533</v>
+        <v>12.74664298837156</v>
       </c>
       <c r="I24">
-        <v>11.24095779607363</v>
+        <v>18.36120122877949</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.42525964157796</v>
+        <v>9.062232922432056</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.29406975550951</v>
+        <v>22.01188085320947</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.18031148449191</v>
+        <v>18.60453330463893</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.81294534797322</v>
+        <v>7.506957148250549</v>
       </c>
       <c r="C25">
-        <v>6.524999825615195</v>
+        <v>6.044159817287095</v>
       </c>
       <c r="D25">
-        <v>5.417771190457522</v>
+        <v>4.607136241390129</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>15.71873690726184</v>
+        <v>20.85772214081376</v>
       </c>
       <c r="G25">
-        <v>18.2855142415828</v>
+        <v>22.81155099385555</v>
       </c>
       <c r="H25">
-        <v>7.712042572314092</v>
+        <v>12.8162272312625</v>
       </c>
       <c r="I25">
-        <v>11.51222663192934</v>
+        <v>18.50118358880246</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.75619657124425</v>
+        <v>8.74932880491167</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.05451334629434</v>
+        <v>20.84643703892862</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.17471380803726</v>
+        <v>18.70761630282638</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.080674074869712</v>
+        <v>11.04348165040799</v>
       </c>
       <c r="C2">
-        <v>5.959411182113225</v>
+        <v>6.329917688421842</v>
       </c>
       <c r="D2">
-        <v>4.475885659471258</v>
+        <v>5.111127903486922</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.88860462921281</v>
+        <v>15.32907306300175</v>
       </c>
       <c r="G2">
-        <v>22.86737660241402</v>
+        <v>17.85598619292133</v>
       </c>
       <c r="H2">
-        <v>12.87363916951639</v>
+        <v>7.809246361180615</v>
       </c>
       <c r="I2">
-        <v>18.61580411706663</v>
+        <v>11.74683282680093</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.507698967479488</v>
+        <v>10.22670505833361</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97178962817854</v>
+        <v>29.82453469489555</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.7963951308049</v>
+        <v>12.21371794663906</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.773247530042668</v>
+        <v>10.48469396116395</v>
       </c>
       <c r="C3">
-        <v>5.900774916668055</v>
+        <v>6.191849775454271</v>
       </c>
       <c r="D3">
-        <v>4.383079139917542</v>
+        <v>4.890110417285752</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.92101288002941</v>
+        <v>15.09322262443415</v>
       </c>
       <c r="G3">
-        <v>22.9214265074973</v>
+        <v>17.6147371748135</v>
       </c>
       <c r="H3">
-        <v>12.9164050755911</v>
+        <v>7.88465497399348</v>
       </c>
       <c r="I3">
-        <v>18.70068106776516</v>
+        <v>11.92522119836254</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.337542724873428</v>
+        <v>9.846803611967955</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.37294908440589</v>
+        <v>27.54432227186464</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.8645578292609</v>
+        <v>12.26427988702336</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.575730274252771</v>
+        <v>10.12379585323223</v>
       </c>
       <c r="C4">
-        <v>5.864240989951846</v>
+        <v>6.104583542130308</v>
       </c>
       <c r="D4">
-        <v>4.324302717674746</v>
+        <v>4.748180522419928</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.94655389911819</v>
+        <v>14.96205943567063</v>
       </c>
       <c r="G4">
-        <v>22.96254880407701</v>
+        <v>17.49001197950016</v>
       </c>
       <c r="H4">
-        <v>12.94456742240272</v>
+        <v>7.935412554068876</v>
       </c>
       <c r="I4">
-        <v>18.75634332163039</v>
+        <v>12.04363493305861</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.230133486267093</v>
+        <v>9.603851746607507</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.00383256119324</v>
+        <v>26.09311134574843</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.9103414451429</v>
+        <v>12.3063469112654</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.493107276536944</v>
+        <v>9.972357438985552</v>
       </c>
       <c r="C5">
-        <v>5.849229178715561</v>
+        <v>6.068453892033039</v>
       </c>
       <c r="D5">
-        <v>4.299917826627598</v>
+        <v>4.68882731368573</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.95837755525098</v>
+        <v>14.91199448368485</v>
       </c>
       <c r="G5">
-        <v>22.98129178862157</v>
+        <v>17.44487934658331</v>
       </c>
       <c r="H5">
-        <v>12.95652271272813</v>
+        <v>7.957182735295364</v>
       </c>
       <c r="I5">
-        <v>18.77991769310925</v>
+        <v>12.09403044912477</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.185662238633251</v>
+        <v>9.502523791564935</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.85330933974886</v>
+        <v>25.48808323944765</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.92998527395614</v>
+        <v>12.32613458505778</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.479261172016495</v>
+        <v>9.946950736489011</v>
       </c>
       <c r="C6">
-        <v>5.846729275642286</v>
+        <v>6.062421993196288</v>
       </c>
       <c r="D6">
-        <v>4.29584312076673</v>
+        <v>4.678881789688242</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.96042624811966</v>
+        <v>14.9038841210972</v>
       </c>
       <c r="G6">
-        <v>22.9845236413524</v>
+        <v>17.43772309360225</v>
       </c>
       <c r="H6">
-        <v>12.95853680889584</v>
+        <v>7.960862280567691</v>
       </c>
       <c r="I6">
-        <v>18.78388603347411</v>
+        <v>12.10252534467489</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.178236574564488</v>
+        <v>9.485561559786792</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.82831635868496</v>
+        <v>25.38677335986693</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.9333066490824</v>
+        <v>12.32957644579003</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.574624530045843</v>
+        <v>10.12177104113899</v>
       </c>
       <c r="C7">
-        <v>5.864039024529412</v>
+        <v>6.104098507562917</v>
       </c>
       <c r="D7">
-        <v>4.323975583549162</v>
+        <v>4.747386131005171</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.94670763068105</v>
+        <v>14.96137060536452</v>
       </c>
       <c r="G7">
-        <v>22.96279355418683</v>
+        <v>17.48938051524283</v>
       </c>
       <c r="H7">
-        <v>12.94472671637478</v>
+        <v>7.935701801114925</v>
       </c>
       <c r="I7">
-        <v>18.75665764465933</v>
+        <v>12.04430603226071</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.229536520929759</v>
+        <v>9.602494451486782</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.00180263486438</v>
+        <v>26.08500795248911</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.91060237650422</v>
+        <v>12.30660322930575</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.976528755862731</v>
+        <v>10.85456524998548</v>
       </c>
       <c r="C8">
-        <v>5.939309325908227</v>
+        <v>6.282864593135554</v>
       </c>
       <c r="D8">
-        <v>4.444268437423157</v>
+        <v>5.036240785283297</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.89860613991641</v>
+        <v>15.24489304891542</v>
       </c>
       <c r="G8">
-        <v>22.88436020588176</v>
+        <v>17.76783660591315</v>
       </c>
       <c r="H8">
-        <v>12.88798978964136</v>
+        <v>7.834300929884439</v>
       </c>
       <c r="I8">
-        <v>18.64433311580847</v>
+        <v>11.80643917433074</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.449658958193524</v>
+        <v>10.09779195999103</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76575339036394</v>
+        <v>29.04842797775805</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.81908049082625</v>
+        <v>12.22878676378753</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.692670111394695</v>
+        <v>12.14634311135244</v>
       </c>
       <c r="C9">
-        <v>6.082287170524127</v>
+        <v>6.610974047626744</v>
       </c>
       <c r="D9">
-        <v>4.665208461883656</v>
+        <v>5.551397454440849</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.8491705600742</v>
+        <v>15.91092993474145</v>
       </c>
       <c r="G9">
-        <v>22.79392587563496</v>
+        <v>18.50731984311252</v>
       </c>
       <c r="H9">
-        <v>12.79182856930273</v>
+        <v>7.672465794163608</v>
       </c>
       <c r="I9">
-        <v>18.452234559021</v>
+        <v>11.41509081129323</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.856553177258377</v>
+        <v>10.98754906662969</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.24210947166765</v>
+        <v>34.49578625761418</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.67088704984858</v>
+        <v>12.16952039198612</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.172172525470796</v>
+        <v>13.00213408860706</v>
       </c>
       <c r="C10">
-        <v>6.183970807470414</v>
+        <v>6.834453192333394</v>
       </c>
       <c r="D10">
-        <v>4.817517193080981</v>
+        <v>5.896349008340305</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.840348124885</v>
+        <v>16.4695077660019</v>
       </c>
       <c r="G10">
-        <v>22.76661142411309</v>
+        <v>19.1784006563584</v>
       </c>
       <c r="H10">
-        <v>12.73037444557566</v>
+        <v>7.578555870480187</v>
       </c>
       <c r="I10">
-        <v>18.32830313571448</v>
+        <v>11.1805322090622</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.138539953283757</v>
+        <v>11.58562230890103</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.30066478997146</v>
+        <v>38.34838698652248</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.58119539584544</v>
+        <v>12.19128128907801</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.379746930181881</v>
+        <v>13.37026265256851</v>
       </c>
       <c r="C11">
-        <v>6.22938810410416</v>
+        <v>6.931327909903418</v>
       </c>
       <c r="D11">
-        <v>4.884462273713459</v>
+        <v>6.045558179706465</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.84231988340677</v>
+        <v>16.73913950381217</v>
       </c>
       <c r="G11">
-        <v>22.7627643980051</v>
+        <v>19.51351480982412</v>
       </c>
       <c r="H11">
-        <v>12.70441222805347</v>
+        <v>7.541828802427341</v>
       </c>
       <c r="I11">
-        <v>18.27566652018586</v>
+        <v>11.0871493133654</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.262787417850836</v>
+        <v>11.84435392896384</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.77417491513586</v>
+        <v>40.09028466690823</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.54458268792298</v>
+        <v>12.21728490310917</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.456803925781131</v>
+        <v>13.50653411971612</v>
       </c>
       <c r="C12">
-        <v>6.246456724751369</v>
+        <v>6.967225463213341</v>
       </c>
       <c r="D12">
-        <v>4.909463206474897</v>
+        <v>6.10091394688537</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.84392716196909</v>
+        <v>16.84352645349066</v>
       </c>
       <c r="G12">
-        <v>22.76254608310376</v>
+        <v>19.64489222695318</v>
       </c>
       <c r="H12">
-        <v>12.69486759822501</v>
+        <v>7.528832663346599</v>
       </c>
       <c r="I12">
-        <v>18.25627307347782</v>
+        <v>11.05387549658278</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.309230363462721</v>
+        <v>11.94029561660662</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.9521510742647</v>
+        <v>40.7508053738507</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.531322671005</v>
+        <v>12.22961613373088</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.44027753587164</v>
+        <v>13.47732636345338</v>
       </c>
       <c r="C13">
-        <v>6.242786615038659</v>
+        <v>6.959531057297055</v>
       </c>
       <c r="D13">
-        <v>4.904094559682037</v>
+        <v>6.089043716533288</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.84354273792601</v>
+        <v>16.82094231555858</v>
       </c>
       <c r="G13">
-        <v>22.76253795501097</v>
+        <v>19.61639530786498</v>
       </c>
       <c r="H13">
-        <v>12.69691045354764</v>
+        <v>7.531590263524933</v>
       </c>
       <c r="I13">
-        <v>18.26042581469644</v>
+        <v>11.06094578419806</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.299255449884425</v>
+        <v>11.91972536793719</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.91388258965912</v>
+        <v>40.60846393419642</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.53415153785349</v>
+        <v>12.2268471082966</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.386117608115383</v>
+        <v>13.38153706877746</v>
       </c>
       <c r="C14">
-        <v>6.230795005812021</v>
+        <v>6.934297625725498</v>
       </c>
       <c r="D14">
-        <v>4.886526195720401</v>
+        <v>6.05013553619063</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.84243486994005</v>
+        <v>16.74768137087354</v>
       </c>
       <c r="G14">
-        <v>22.76272159267023</v>
+        <v>19.52423239958851</v>
       </c>
       <c r="H14">
-        <v>12.70362123957651</v>
+        <v>7.540741042199071</v>
       </c>
       <c r="I14">
-        <v>18.27406020328356</v>
+        <v>11.08436894926007</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.266620619374088</v>
+        <v>11.85228860582219</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.78884476430413</v>
+        <v>40.14459158454918</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.54347965288139</v>
+        <v>12.21824861365884</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.352740850360508</v>
+        <v>13.32245288892985</v>
       </c>
       <c r="C15">
-        <v>6.223432608439123</v>
+        <v>6.918735704954648</v>
       </c>
       <c r="D15">
-        <v>4.875719150896733</v>
+        <v>6.026152676070138</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.84186833298802</v>
+        <v>16.70310605682937</v>
       </c>
       <c r="G15">
-        <v>22.76299548566818</v>
+        <v>19.46836906586825</v>
       </c>
       <c r="H15">
-        <v>12.70776912727933</v>
+        <v>7.546466378426553</v>
       </c>
       <c r="I15">
-        <v>18.2824818716844</v>
+        <v>11.09899370952842</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.246551031762518</v>
+        <v>11.81071298106774</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.71207708803969</v>
+        <v>39.86065786776669</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.54927216824924</v>
+        <v>12.21331047092515</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.158392057510127</v>
+        <v>12.97764281883819</v>
       </c>
       <c r="C16">
-        <v>6.180984997948602</v>
+        <v>6.82801787502023</v>
       </c>
       <c r="D16">
-        <v>4.81309392654622</v>
+        <v>5.886439508818269</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.84033971518216</v>
+        <v>16.45220311926568</v>
       </c>
       <c r="G16">
-        <v>22.76703590374281</v>
+        <v>19.15711582798386</v>
       </c>
       <c r="H16">
-        <v>12.73211125528672</v>
+        <v>7.581080889465734</v>
       </c>
       <c r="I16">
-        <v>18.33181841599579</v>
+        <v>11.1869173960659</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.130336612227437</v>
+        <v>11.56843558918013</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.26954264874432</v>
+        <v>38.23452852110776</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.58367258793108</v>
+        <v>12.18992013955238</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.036439777745992</v>
+        <v>12.76063144452429</v>
       </c>
       <c r="C17">
-        <v>6.154723180545786</v>
+        <v>6.771074794557753</v>
       </c>
       <c r="D17">
-        <v>4.774066170699594</v>
+        <v>5.798728909556392</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.84093509469508</v>
+        <v>16.30229091530519</v>
       </c>
       <c r="G17">
-        <v>22.77171559382975</v>
+        <v>18.97393811628307</v>
       </c>
       <c r="H17">
-        <v>12.74755497931637</v>
+        <v>7.603885662206452</v>
       </c>
       <c r="I17">
-        <v>18.3630435153119</v>
+        <v>11.24438456318262</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.057990579757636</v>
+        <v>11.41631185540591</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.99587353234669</v>
+        <v>37.23575310647485</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.60585042712403</v>
+        <v>12.17981264254331</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.965304086186872</v>
+        <v>12.63382463161767</v>
       </c>
       <c r="C18">
-        <v>6.139539636321573</v>
+        <v>6.737878804565381</v>
       </c>
       <c r="D18">
-        <v>4.751398815761173</v>
+        <v>5.747556599554797</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.84184093785725</v>
+        <v>16.21752364227261</v>
       </c>
       <c r="G18">
-        <v>22.7752144570491</v>
+        <v>18.87137522132967</v>
       </c>
       <c r="H18">
-        <v>12.75662544333398</v>
+        <v>7.617563352711906</v>
       </c>
       <c r="I18">
-        <v>18.38135536726901</v>
+        <v>11.27868040469728</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.016001266447262</v>
+        <v>11.32756670011408</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.83771973996538</v>
+        <v>36.66010160806201</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.61900064906805</v>
+        <v>12.17550434057287</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.941049371969293</v>
+        <v>12.59055110853884</v>
       </c>
       <c r="C19">
-        <v>6.134385563070839</v>
+        <v>6.726565695890689</v>
       </c>
       <c r="D19">
-        <v>4.743686734324451</v>
+        <v>5.730107385051478</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.84224439396082</v>
+        <v>16.18907209845687</v>
       </c>
       <c r="G19">
-        <v>22.77653758485499</v>
+        <v>18.83712417692424</v>
       </c>
       <c r="H19">
-        <v>12.75972877369801</v>
+        <v>7.622289242216889</v>
       </c>
       <c r="I19">
-        <v>18.38761587146249</v>
+        <v>11.29050076198493</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.001720388869728</v>
+        <v>11.29730818095993</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.78404903687333</v>
+        <v>36.46492895822228</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.62352071237698</v>
+        <v>12.17429917080587</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.049524699673142</v>
+        <v>12.78393897467734</v>
       </c>
       <c r="C20">
-        <v>6.157526982130626</v>
+        <v>6.777183072888946</v>
       </c>
       <c r="D20">
-        <v>4.778243570069731</v>
+        <v>5.808140996194154</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.84081340411234</v>
+        <v>16.31809809315536</v>
       </c>
       <c r="G20">
-        <v>22.77113384827581</v>
+        <v>18.99314705407346</v>
       </c>
       <c r="H20">
-        <v>12.74589154809827</v>
+        <v>7.601399639042607</v>
       </c>
       <c r="I20">
-        <v>18.35968311214193</v>
+        <v>11.23813732085785</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.0657312430281</v>
+        <v>11.43263561053309</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.02508467908009</v>
+        <v>37.34218125558434</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.60344875329896</v>
+        <v>12.18073162356126</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.402067883267629</v>
+        <v>13.40975841964638</v>
       </c>
       <c r="C21">
-        <v>6.234320830764577</v>
+        <v>6.94173153192178</v>
       </c>
       <c r="D21">
-        <v>4.891696040586449</v>
+        <v>6.061595242935491</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.84273692462968</v>
+        <v>16.76913743177742</v>
       </c>
       <c r="G21">
-        <v>22.76263400921345</v>
+        <v>19.55117972808682</v>
       </c>
       <c r="H21">
-        <v>12.7016423378908</v>
+        <v>7.538028092318866</v>
       </c>
       <c r="I21">
-        <v>18.27004081888782</v>
+        <v>11.07743085459903</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.276222938921093</v>
+        <v>11.8721526382078</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.82560887383694</v>
+        <v>40.28079477468335</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.54072333890507</v>
+        <v>12.22070538787014</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.623448422486964</v>
+        <v>13.80046840706683</v>
       </c>
       <c r="C22">
-        <v>6.283748641798896</v>
+        <v>7.044625663394269</v>
       </c>
       <c r="D22">
-        <v>4.963800011510452</v>
+        <v>6.220539192882769</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.8490098569257</v>
+        <v>17.07726468976805</v>
       </c>
       <c r="G22">
-        <v>22.7642990161183</v>
+        <v>19.9420962293922</v>
       </c>
       <c r="H22">
-        <v>12.6743940365778</v>
+        <v>7.50194847613383</v>
       </c>
       <c r="I22">
-        <v>18.21459601506526</v>
+        <v>10.98466534521848</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.410242810935637</v>
+        <v>12.1474769748024</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.34096481118232</v>
+        <v>42.2082963266815</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.50325262977454</v>
+        <v>12.26139631380341</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.506127814706332</v>
+        <v>13.59364544053836</v>
       </c>
       <c r="C23">
-        <v>6.257440750767184</v>
+        <v>6.990172521034781</v>
       </c>
       <c r="D23">
-        <v>4.925507835303685</v>
+        <v>6.136334537948346</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.84520312871654</v>
+        <v>16.91156840130596</v>
       </c>
       <c r="G23">
-        <v>22.76274843051787</v>
+        <v>19.73098726375808</v>
       </c>
       <c r="H23">
-        <v>12.68878405016636</v>
+        <v>7.520699729707839</v>
       </c>
       <c r="I23">
-        <v>18.2439001394264</v>
+        <v>11.03299181916893</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.339047116765121</v>
+        <v>12.00166557421791</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.06668031722634</v>
+        <v>41.1779152807167</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.52292832061507</v>
+        <v>12.23828768209468</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.043612192793345</v>
+        <v>12.7734080008628</v>
       </c>
       <c r="C24">
-        <v>6.156259648343391</v>
+        <v>6.774422941710943</v>
       </c>
       <c r="D24">
-        <v>4.776355682517941</v>
+        <v>5.803888113645119</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.84086666509357</v>
+        <v>16.31094725087092</v>
       </c>
       <c r="G24">
-        <v>22.77139433769544</v>
+        <v>18.98445414617597</v>
       </c>
       <c r="H24">
-        <v>12.74664298837156</v>
+        <v>7.602521808038544</v>
       </c>
       <c r="I24">
-        <v>18.36120122877949</v>
+        <v>11.24095779607355</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.062232922432056</v>
+        <v>11.42525964157792</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.01188085320947</v>
+        <v>37.29406975550948</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.60453330463893</v>
+        <v>12.1803114844919</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.506957148250549</v>
+        <v>11.81294534797324</v>
       </c>
       <c r="C25">
-        <v>6.044159817287095</v>
+        <v>6.524999825615296</v>
       </c>
       <c r="D25">
-        <v>4.607136241390129</v>
+        <v>5.417771190457556</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.85772214081376</v>
+        <v>15.71873690726177</v>
       </c>
       <c r="G25">
-        <v>22.81155099385555</v>
+        <v>18.2855142415827</v>
       </c>
       <c r="H25">
-        <v>12.8162272312625</v>
+        <v>7.712042572314033</v>
       </c>
       <c r="I25">
-        <v>18.50118358880246</v>
+        <v>11.51222663192932</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.74932880491167</v>
+        <v>10.75619657124428</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84643703892862</v>
+        <v>33.05451334629431</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.70761630282638</v>
+        <v>12.1747138080372</v>
       </c>
     </row>
   </sheetData>
